--- a/SingleTourneyResultsExcel.xlsx
+++ b/SingleTourneyResultsExcel.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zack.coleman\OneDrive - Western Governors University\My Documents\GitHub\NCAAB_2020_MarchMadness_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45D344F-F08E-4DAB-B758-C191AF3DE232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A44C71-A9D5-477E-AAE5-7E1D90163475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{73DEAC3C-0FF2-4D8E-97AB-8E2CE4DCAFF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{73DEAC3C-0FF2-4D8E-97AB-8E2CE4DCAFF3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="red (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="green" sheetId="1" r:id="rId2"/>
+    <sheet name="red" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="81">
   <si>
     <t>1 KANSAS</t>
   </si>
@@ -385,12 +387,33 @@
   <si>
     <t>SOUTH</t>
   </si>
+  <si>
+    <t>Championship Game</t>
+  </si>
+  <si>
+    <t>Round 1</t>
+  </si>
+  <si>
+    <t>Round 7</t>
+  </si>
+  <si>
+    <t>16 Boston Univ.</t>
+  </si>
+  <si>
+    <t>12 Richmond</t>
+  </si>
+  <si>
+    <t>11 NC State</t>
+  </si>
+  <si>
+    <t>16 Prarie View A&amp;M</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,16 +470,35 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8F8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -501,12 +543,543 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -525,22 +1098,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,11 +1110,306 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,6 +1419,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8F8F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -870,11 +1731,1033 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6421F9F-6769-440A-8713-0D55743FD01F}">
+  <dimension ref="A1:O38"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="122" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="124" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="98"/>
+      <c r="F3" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="117"/>
+      <c r="J3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="98"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:15" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:15" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="122" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="119"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="109"/>
+      <c r="O20"/>
+    </row>
+    <row r="21" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="99"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="74"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="99"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="122" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="124" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="126" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="M37" s="97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="L38" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="68">
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="E20:E36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="J29:J36"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="I20:I36"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="I2:I19"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="J11:J18"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="J3:J10"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="F3:F36"/>
+    <mergeCell ref="G3:G36"/>
+    <mergeCell ref="H3:H36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162FA0B7-251C-4E07-AEE6-0DC7AE9A025E}">
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I36"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,37 +2775,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -935,43 +2818,43 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -979,41 +2862,41 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1021,45 +2904,45 @@
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1067,38 +2950,38 @@
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="M9" s="6" t="s">
@@ -1109,18 +2992,18 @@
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="6" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1128,48 +3011,48 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="6" t="s">
         <v>41</v>
       </c>
@@ -1178,65 +3061,65 @@
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
       <c r="M14" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="17" t="s">
         <v>45</v>
       </c>
       <c r="M15" s="6" t="s">
@@ -1247,41 +3130,41 @@
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="6" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="21" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1289,102 +3172,102 @@
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="9"/>
-      <c r="L20" s="10"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="17"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
       <c r="M22" s="6" t="s">
         <v>49</v>
       </c>
@@ -1393,86 +3276,86 @@
       <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="17"/>
       <c r="M24" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
       <c r="M26" s="6" t="s">
         <v>53</v>
       </c>
@@ -1481,114 +3364,114 @@
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9" t="s">
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="17"/>
       <c r="M30" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9" t="s">
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1596,42 +3479,42 @@
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
       <c r="M32" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="L33" s="22" t="s">
         <v>61</v>
       </c>
       <c r="M33" s="6" t="s">
@@ -1642,38 +3525,38 @@
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="6" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17" t="s">
         <v>63</v>
       </c>
       <c r="M35" s="6" t="s">
@@ -1685,46 +3568,65 @@
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="6" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="L37" s="9"/>
+      <c r="B37" s="17"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="B38" s="17"/>
+      <c r="L38" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E21:E36"/>
-    <mergeCell ref="I3:I18"/>
-    <mergeCell ref="I21:I36"/>
-    <mergeCell ref="F3:F36"/>
-    <mergeCell ref="H3:H36"/>
-    <mergeCell ref="G3:G36"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="J3:J10"/>
-    <mergeCell ref="J11:J18"/>
-    <mergeCell ref="J21:J28"/>
-    <mergeCell ref="J29:J36"/>
-    <mergeCell ref="E3:E18"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="L35:L36"/>
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="K3:K6"/>
@@ -1741,52 +3643,1093 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="C25:C28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="J3:J10"/>
+    <mergeCell ref="J11:J18"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="J29:J36"/>
+    <mergeCell ref="E3:E18"/>
+    <mergeCell ref="E21:E36"/>
+    <mergeCell ref="I3:I18"/>
+    <mergeCell ref="I21:I36"/>
+    <mergeCell ref="F3:F36"/>
+    <mergeCell ref="H3:H36"/>
+    <mergeCell ref="G3:G36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ED9BEC-6124-4540-A6BD-F5EC1A47D0DE}">
+  <dimension ref="A1:O40"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18:L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:15" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="1:15" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20"/>
+    </row>
+    <row r="21" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="85"/>
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="1:15" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="65"/>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M35" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="M39" s="69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="L40" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="68">
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="I21:M22"/>
+    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="I2:M3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="J31:J38"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="I23:I38"/>
+    <mergeCell ref="J23:J30"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="J12:J19"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="H4:H38"/>
+    <mergeCell ref="I4:I19"/>
+    <mergeCell ref="J4:J11"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="E4:E19"/>
+    <mergeCell ref="F4:F38"/>
+    <mergeCell ref="G4:G38"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="E23:E38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0A8D86-DF25-46C1-A13F-BAB4D83580FD}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,273 +4742,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="69" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="134" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="135" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
